--- a/biology/Zoologie/Isothrix/Isothrix.xlsx
+++ b/biology/Zoologie/Isothrix/Isothrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isothrix est un genre de rongeurs de la famille des Echimyidae qui comprend des espèces de rats épineux localisées en Amérique latine.
 Ce genre a été décrit pour la première fois en 1845 par le zoologiste et archéologue allemand Johann Andreas Wagner (1797-1861). 
@@ -512,16 +524,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (21 sept. 2012)[1] et ITIS      (21 sept. 2012)[2]  :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 sept. 2012) et ITIS      (21 sept. 2012)  :
 Isothrix bistriata Wagner, 1845
 Isothrix negrensis Thomas, 1920
 Isothrix pagurus Wagner, 1845
 Isothrix sinnamariensis Vie &amp; al., 1996
-En 2005, Louise Emmons révise la taxinomie et retient cinq espèces dans ce genre : Isothrix bistrata, Isothrix negrensis, Isothrix pagurus, Isothrix sinamariensis, mais aussi Isothrix orinoci traditionnellement considérée comme une sous espèce : Isothrix bistriata orinoci[3]. 
+En 2005, Louise Emmons révise la taxinomie et retient cinq espèces dans ce genre : Isothrix bistrata, Isothrix negrensis, Isothrix pagurus, Isothrix sinamariensis, mais aussi Isothrix orinoci traditionnellement considérée comme une sous espèce : Isothrix bistriata orinoci. 
 En 2006, une nouvelle espèce est découverte en Pérou : Isothrix barbarabrownae
-Selon NCBI  (21 sept. 2012)[4] :
+Selon NCBI  (21 sept. 2012) :
 Isothrix barbarabrownae
 Isothrix bistriata
 Isothrix negrensis
